--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl11-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl11-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.842606</v>
+        <v>0.8417533333333332</v>
       </c>
       <c r="H2">
-        <v>2.527818</v>
+        <v>2.52526</v>
       </c>
       <c r="I2">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="J2">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1636346666666667</v>
+        <v>0.227228</v>
       </c>
       <c r="N2">
-        <v>0.490904</v>
+        <v>0.681684</v>
       </c>
       <c r="O2">
-        <v>0.1786204457433447</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="P2">
-        <v>0.1786204457433446</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="Q2">
-        <v>0.1378795519413333</v>
+        <v>0.1912699264266666</v>
       </c>
       <c r="R2">
-        <v>1.240915967472</v>
+        <v>1.72142933784</v>
       </c>
       <c r="S2">
-        <v>0.00194304095114807</v>
+        <v>0.002564998682423035</v>
       </c>
       <c r="T2">
-        <v>0.001943040951148069</v>
+        <v>0.002564998682423034</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.842606</v>
+        <v>0.8417533333333332</v>
       </c>
       <c r="H3">
-        <v>2.527818</v>
+        <v>2.52526</v>
       </c>
       <c r="I3">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="J3">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.961192</v>
       </c>
       <c r="O3">
-        <v>0.7135997857590926</v>
+        <v>0.6836477770376096</v>
       </c>
       <c r="P3">
-        <v>0.7135997857590924</v>
+        <v>0.6836477770376095</v>
       </c>
       <c r="Q3">
-        <v>0.5508373821173334</v>
+        <v>0.5502799677688889</v>
       </c>
       <c r="R3">
-        <v>4.957536439056</v>
+        <v>4.95251970992</v>
       </c>
       <c r="S3">
-        <v>0.007762569400664865</v>
+        <v>0.007379452790411095</v>
       </c>
       <c r="T3">
-        <v>0.007762569400664864</v>
+        <v>0.007379452790411091</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.842606</v>
+        <v>0.8417533333333332</v>
       </c>
       <c r="H4">
-        <v>2.527818</v>
+        <v>2.52526</v>
       </c>
       <c r="I4">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="J4">
-        <v>0.0108780433452729</v>
+        <v>0.01079423211523897</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,27 +685,27 @@
         <v>0.225841</v>
       </c>
       <c r="O4">
-        <v>0.08217455976549935</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="P4">
-        <v>0.08217455976549934</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="Q4">
-        <v>0.06343166054866665</v>
+        <v>0.06336747151777776</v>
       </c>
       <c r="R4">
-        <v>0.5708849449379999</v>
+        <v>0.57030724366</v>
       </c>
       <c r="S4">
-        <v>0.0008938984230078205</v>
+        <v>0.0008497806424048395</v>
       </c>
       <c r="T4">
-        <v>0.0008938984230078204</v>
+        <v>0.0008497806424048391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.842606</v>
+        <v>69.05064766666666</v>
       </c>
       <c r="H5">
-        <v>2.527818</v>
+        <v>207.151943</v>
       </c>
       <c r="I5">
-        <v>0.0108780433452729</v>
+        <v>0.885471656726338</v>
       </c>
       <c r="J5">
-        <v>0.0108780433452729</v>
+        <v>0.8854716567263378</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.023457</v>
+        <v>0.227228</v>
       </c>
       <c r="N5">
-        <v>0.070371</v>
+        <v>0.681684</v>
       </c>
       <c r="O5">
-        <v>0.02560520873206351</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="P5">
-        <v>0.02560520873206351</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="Q5">
-        <v>0.019765008942</v>
+        <v>15.69024056800133</v>
       </c>
       <c r="R5">
-        <v>0.177885080478</v>
+        <v>141.212165112012</v>
       </c>
       <c r="S5">
-        <v>0.0002785345704521471</v>
+        <v>0.2104117836802435</v>
       </c>
       <c r="T5">
-        <v>0.000278534570452147</v>
+        <v>0.2104117836802434</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>69.05064766666668</v>
+        <v>69.05064766666666</v>
       </c>
       <c r="H6">
         <v>207.151943</v>
       </c>
       <c r="I6">
-        <v>0.8914438519749055</v>
+        <v>0.885471656726338</v>
       </c>
       <c r="J6">
-        <v>0.8914438519749055</v>
+        <v>0.8854716567263378</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1636346666666667</v>
+        <v>0.6537306666666667</v>
       </c>
       <c r="N6">
-        <v>0.490904</v>
+        <v>1.961192</v>
       </c>
       <c r="O6">
-        <v>0.1786204457433447</v>
+        <v>0.6836477770376096</v>
       </c>
       <c r="P6">
-        <v>0.1786204457433446</v>
+        <v>0.6836477770376095</v>
       </c>
       <c r="Q6">
-        <v>11.29907971405245</v>
+        <v>45.14052593289511</v>
       </c>
       <c r="R6">
-        <v>101.691717426472</v>
+        <v>406.264733396056</v>
       </c>
       <c r="S6">
-        <v>0.1592300981949218</v>
+        <v>0.6053507297507703</v>
       </c>
       <c r="T6">
-        <v>0.1592300981949217</v>
+        <v>0.6053507297507701</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>69.05064766666668</v>
+        <v>69.05064766666666</v>
       </c>
       <c r="H7">
         <v>207.151943</v>
       </c>
       <c r="I7">
-        <v>0.8914438519749055</v>
+        <v>0.885471656726338</v>
       </c>
       <c r="J7">
-        <v>0.8914438519749055</v>
+        <v>0.8854716567263378</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.6537306666666667</v>
+        <v>0.07528033333333332</v>
       </c>
       <c r="N7">
-        <v>1.961192</v>
+        <v>0.225841</v>
       </c>
       <c r="O7">
-        <v>0.7135997857590926</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="P7">
-        <v>0.7135997857590924</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="Q7">
-        <v>45.14052593289512</v>
+        <v>5.198155773229221</v>
       </c>
       <c r="R7">
-        <v>406.264733396056</v>
+        <v>46.78340195906299</v>
       </c>
       <c r="S7">
-        <v>0.6361341417855528</v>
+        <v>0.06970914329532432</v>
       </c>
       <c r="T7">
-        <v>0.6361341417855527</v>
+        <v>0.06970914329532429</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>69.05064766666668</v>
+        <v>7.697976666666666</v>
       </c>
       <c r="H8">
-        <v>207.151943</v>
+        <v>23.09393</v>
       </c>
       <c r="I8">
-        <v>0.8914438519749055</v>
+        <v>0.09871507918910555</v>
       </c>
       <c r="J8">
-        <v>0.8914438519749055</v>
+        <v>0.09871507918910553</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07528033333333332</v>
+        <v>0.227228</v>
       </c>
       <c r="N8">
-        <v>0.225841</v>
+        <v>0.681684</v>
       </c>
       <c r="O8">
-        <v>0.08217455976549935</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="P8">
-        <v>0.08217455976549934</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="Q8">
-        <v>5.198155773229223</v>
+        <v>1.749195842013333</v>
       </c>
       <c r="R8">
-        <v>46.783401959063</v>
+        <v>15.74276257812</v>
       </c>
       <c r="S8">
-        <v>0.07325400609169883</v>
+        <v>0.02345734697495299</v>
       </c>
       <c r="T8">
-        <v>0.07325400609169881</v>
+        <v>0.02345734697495299</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>69.05064766666668</v>
+        <v>7.697976666666666</v>
       </c>
       <c r="H9">
-        <v>207.151943</v>
+        <v>23.09393</v>
       </c>
       <c r="I9">
-        <v>0.8914438519749055</v>
+        <v>0.09871507918910555</v>
       </c>
       <c r="J9">
-        <v>0.8914438519749055</v>
+        <v>0.09871507918910553</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.023457</v>
+        <v>0.6537306666666667</v>
       </c>
       <c r="N9">
-        <v>0.070371</v>
+        <v>1.961192</v>
       </c>
       <c r="O9">
-        <v>0.02560520873206351</v>
+        <v>0.6836477770376096</v>
       </c>
       <c r="P9">
-        <v>0.02560520873206351</v>
+        <v>0.6836477770376095</v>
       </c>
       <c r="Q9">
-        <v>1.619721042317</v>
+        <v>5.032403418284445</v>
       </c>
       <c r="R9">
-        <v>14.577489380853</v>
+        <v>45.29163076456</v>
       </c>
       <c r="S9">
-        <v>0.02282560590273219</v>
+        <v>0.0674863444477236</v>
       </c>
       <c r="T9">
-        <v>0.02282560590273218</v>
+        <v>0.06748634444772358</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.007504</v>
+        <v>7.697976666666666</v>
       </c>
       <c r="H10">
-        <v>18.022512</v>
+        <v>23.09393</v>
       </c>
       <c r="I10">
-        <v>0.07755687582203347</v>
+        <v>0.09871507918910555</v>
       </c>
       <c r="J10">
-        <v>0.07755687582203347</v>
+        <v>0.09871507918910553</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,33 +1051,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1636346666666667</v>
+        <v>0.07528033333333332</v>
       </c>
       <c r="N10">
-        <v>0.490904</v>
+        <v>0.225841</v>
       </c>
       <c r="O10">
-        <v>0.1786204457433447</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="P10">
-        <v>0.1786204457433446</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="Q10">
-        <v>0.9830359145386667</v>
+        <v>0.5795062494588888</v>
       </c>
       <c r="R10">
-        <v>8.847323230848</v>
+        <v>5.21555624513</v>
       </c>
       <c r="S10">
-        <v>0.01385324372979285</v>
+        <v>0.00777138776642896</v>
       </c>
       <c r="T10">
-        <v>0.01385324372979285</v>
+        <v>0.007771387766428958</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.007504</v>
+        <v>0.391393</v>
       </c>
       <c r="H11">
-        <v>18.022512</v>
+        <v>1.174179</v>
       </c>
       <c r="I11">
-        <v>0.07755687582203347</v>
+        <v>0.005019031969317685</v>
       </c>
       <c r="J11">
-        <v>0.07755687582203347</v>
+        <v>0.005019031969317684</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.6537306666666667</v>
+        <v>0.227228</v>
       </c>
       <c r="N11">
-        <v>1.961192</v>
+        <v>0.681684</v>
       </c>
       <c r="O11">
-        <v>0.7135997857590926</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="P11">
-        <v>0.7135997857590924</v>
+        <v>0.2376267857721762</v>
       </c>
       <c r="Q11">
-        <v>3.927289594922667</v>
+        <v>0.088935448604</v>
       </c>
       <c r="R11">
-        <v>35.345606354304</v>
+        <v>0.800419037436</v>
       </c>
       <c r="S11">
-        <v>0.05534456997074762</v>
+        <v>0.001192656434556757</v>
       </c>
       <c r="T11">
-        <v>0.05534456997074762</v>
+        <v>0.001192656434556757</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.007504</v>
+        <v>0.391393</v>
       </c>
       <c r="H12">
-        <v>18.022512</v>
+        <v>1.174179</v>
       </c>
       <c r="I12">
-        <v>0.07755687582203347</v>
+        <v>0.005019031969317685</v>
       </c>
       <c r="J12">
-        <v>0.07755687582203347</v>
+        <v>0.005019031969317684</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.07528033333333332</v>
+        <v>0.6537306666666667</v>
       </c>
       <c r="N12">
-        <v>0.225841</v>
+        <v>1.961192</v>
       </c>
       <c r="O12">
-        <v>0.08217455976549935</v>
+        <v>0.6836477770376096</v>
       </c>
       <c r="P12">
-        <v>0.08217455976549934</v>
+        <v>0.6836477770376095</v>
       </c>
       <c r="Q12">
-        <v>0.4522469036213333</v>
+        <v>0.2558656068186667</v>
       </c>
       <c r="R12">
-        <v>4.070222132592</v>
+        <v>2.302790461368</v>
       </c>
       <c r="S12">
-        <v>0.006373202127463101</v>
+        <v>0.003431250048704731</v>
       </c>
       <c r="T12">
-        <v>0.0063732021274631</v>
+        <v>0.00343125004870473</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.007504</v>
+        <v>0.391393</v>
       </c>
       <c r="H13">
-        <v>18.022512</v>
+        <v>1.174179</v>
       </c>
       <c r="I13">
-        <v>0.07755687582203347</v>
+        <v>0.005019031969317685</v>
       </c>
       <c r="J13">
-        <v>0.07755687582203347</v>
+        <v>0.005019031969317684</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,276 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.023457</v>
+        <v>0.07528033333333332</v>
       </c>
       <c r="N13">
-        <v>0.070371</v>
+        <v>0.225841</v>
       </c>
       <c r="O13">
-        <v>0.02560520873206351</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="P13">
-        <v>0.02560520873206351</v>
+        <v>0.0787254371902143</v>
       </c>
       <c r="Q13">
-        <v>0.140918021328</v>
+        <v>0.02946419550433333</v>
       </c>
       <c r="R13">
-        <v>1.268262191952</v>
+        <v>0.265177759539</v>
       </c>
       <c r="S13">
-        <v>0.001985859994029897</v>
+        <v>0.000395125486056197</v>
       </c>
       <c r="T13">
-        <v>0.001985859994029897</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1.558577</v>
-      </c>
-      <c r="H14">
-        <v>4.675731</v>
-      </c>
-      <c r="I14">
-        <v>0.0201212288577881</v>
-      </c>
-      <c r="J14">
-        <v>0.0201212288577881</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.1636346666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.490904</v>
-      </c>
-      <c r="O14">
-        <v>0.1786204457433447</v>
-      </c>
-      <c r="P14">
-        <v>0.1786204457433446</v>
-      </c>
-      <c r="Q14">
-        <v>0.2550372278693333</v>
-      </c>
-      <c r="R14">
-        <v>2.295335050824</v>
-      </c>
-      <c r="S14">
-        <v>0.00359406286748196</v>
-      </c>
-      <c r="T14">
-        <v>0.00359406286748196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.558577</v>
-      </c>
-      <c r="H15">
-        <v>4.675731</v>
-      </c>
-      <c r="I15">
-        <v>0.0201212288577881</v>
-      </c>
-      <c r="J15">
-        <v>0.0201212288577881</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.6537306666666667</v>
-      </c>
-      <c r="N15">
-        <v>1.961192</v>
-      </c>
-      <c r="O15">
-        <v>0.7135997857590926</v>
-      </c>
-      <c r="P15">
-        <v>0.7135997857590924</v>
-      </c>
-      <c r="Q15">
-        <v>1.018889581261333</v>
-      </c>
-      <c r="R15">
-        <v>9.170006231352</v>
-      </c>
-      <c r="S15">
-        <v>0.01435850460212726</v>
-      </c>
-      <c r="T15">
-        <v>0.01435850460212726</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.558577</v>
-      </c>
-      <c r="H16">
-        <v>4.675731</v>
-      </c>
-      <c r="I16">
-        <v>0.0201212288577881</v>
-      </c>
-      <c r="J16">
-        <v>0.0201212288577881</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.07528033333333332</v>
-      </c>
-      <c r="N16">
-        <v>0.225841</v>
-      </c>
-      <c r="O16">
-        <v>0.08217455976549935</v>
-      </c>
-      <c r="P16">
-        <v>0.08217455976549934</v>
-      </c>
-      <c r="Q16">
-        <v>0.1173301960856666</v>
-      </c>
-      <c r="R16">
-        <v>1.055971764771</v>
-      </c>
-      <c r="S16">
-        <v>0.001653453123329599</v>
-      </c>
-      <c r="T16">
-        <v>0.001653453123329598</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.558577</v>
-      </c>
-      <c r="H17">
-        <v>4.675731</v>
-      </c>
-      <c r="I17">
-        <v>0.0201212288577881</v>
-      </c>
-      <c r="J17">
-        <v>0.0201212288577881</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.023457</v>
-      </c>
-      <c r="N17">
-        <v>0.070371</v>
-      </c>
-      <c r="O17">
-        <v>0.02560520873206351</v>
-      </c>
-      <c r="P17">
-        <v>0.02560520873206351</v>
-      </c>
-      <c r="Q17">
-        <v>0.036559540689</v>
-      </c>
-      <c r="R17">
-        <v>0.329035866201</v>
-      </c>
-      <c r="S17">
-        <v>0.0005152082648492843</v>
-      </c>
-      <c r="T17">
-        <v>0.0005152082648492842</v>
+        <v>0.0003951254860561969</v>
       </c>
     </row>
   </sheetData>
